--- a/통합 문서1.xlsx
+++ b/통합 문서1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이우상\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이우상\Documents\Visual Studio 2017\Projects\4 - 2\Capstone_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7850FD68-913E-445B-A3F2-260F7AA82003}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7ADC03-6109-48B0-99E8-AED59896F1DB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8040" xr2:uid="{F4C5FE94-1C36-4BA4-88DF-0C95888DA8BD}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>항목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,18 +71,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지 구성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>물리 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>검증 및 테스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>서버(IOCP) 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임 시스템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카툰렌더링</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,15 +103,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>염혜린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사명진+이우상+염혜린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 및 버그 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 오브젝트 및 게임 로직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>이우상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>염혜린</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사명진+이우상+염혜린</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,6 +217,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,156 +540,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83905EA-1E23-461A-A67F-94ABA6887214}">
-  <dimension ref="C4:N15"/>
+  <dimension ref="C5:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="10.19921875" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" customWidth="1"/>
-    <col min="14" max="14" width="23.69921875" customWidth="1"/>
+    <col min="3" max="3" width="25.09765625" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" customWidth="1"/>
+    <col min="8" max="8" width="8.59765625" customWidth="1"/>
+    <col min="14" max="14" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
-    </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" t="s">
-        <v>20</v>
+      <c r="N6" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
       <c r="M8" s="4"/>
-      <c r="N8" t="s">
-        <v>21</v>
+      <c r="N8" s="7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="4"/>
+        <v>15</v>
+      </c>
       <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="N11" s="7"/>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>11</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" t="s">
-        <v>24</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
